--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I3" s="10">
         <v>1.5</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="L3" s="10">
         <v>1.5</v>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>APLZ</t>
   </si>
   <si>
     <t xml:space="preserve">Mallorca - Real Betis</t>
@@ -2361,14 +2364,14 @@
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3</v>
+      <c r="O3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="R3" s="10">
         <v>0.5</v>
@@ -2459,17 +2462,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12">
@@ -2594,126 +2597,126 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2723,126 +2726,126 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2852,126 +2855,126 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2981,126 +2984,126 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -3110,125 +3113,125 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -3238,126 +3241,126 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -3367,126 +3370,126 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3496,126 +3499,126 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3629,116 +3632,116 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3748,122 +3751,122 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3873,126 +3876,126 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -4002,126 +4005,126 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -4131,126 +4134,126 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -4260,126 +4263,126 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4389,126 +4392,126 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4518,126 +4521,126 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4647,126 +4650,126 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4776,126 +4779,126 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4905,13 +4908,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4962,17 +4965,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -5092,31 +5095,31 @@
         <v>42</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
@@ -5252,7 +5255,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -5384,1496 +5387,1496 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -6882,1268 +6885,1268 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
@@ -8151,145 +8154,145 @@
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL55" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -8299,133 +8302,133 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
@@ -8435,77 +8438,77 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -8517,84 +8520,84 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -8606,77 +8609,77 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -8688,84 +8691,84 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -8777,77 +8780,77 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -8859,84 +8862,84 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -8948,77 +8951,77 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -9030,84 +9033,84 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -9119,77 +9122,77 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -9201,84 +9204,84 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -9290,77 +9293,77 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="16"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="16"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="16"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="16"/>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="16"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="16"/>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="16"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="16"/>
@@ -9372,84 +9375,84 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="16"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="16"/>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="16"/>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="16"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16"/>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="16"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16"/>
@@ -9461,77 +9464,77 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="16"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="16"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="16"/>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="16"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="16"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="16"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="16"/>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="16"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="16"/>
@@ -9543,84 +9546,84 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="16"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="16"/>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="16"/>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="16"/>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="16"/>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="16"/>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16"/>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16"/>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="16"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16"/>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16"/>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="16"/>
@@ -9761,7 +9764,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="16"/>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="16"/>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="16"/>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="16"/>
@@ -10019,7 +10022,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="16"/>
@@ -10081,7 +10084,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="16"/>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="16"/>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="16"/>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="16"/>
@@ -10339,7 +10342,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="16"/>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="16"/>
@@ -10468,7 +10471,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="16"/>
@@ -10535,7 +10538,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="16"/>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="16"/>
@@ -10664,7 +10667,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="16"/>
@@ -10726,7 +10729,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="16"/>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="16"/>
@@ -10855,7 +10858,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="16"/>
@@ -10922,7 +10925,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="16"/>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B514" s="10"/>
       <c r="C514" s="16"/>
@@ -11051,7 +11054,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16"/>
@@ -11113,7 +11116,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B539" s="10"/>
       <c r="C539" s="16"/>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="16"/>
@@ -11242,7 +11245,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B564" s="10"/>
       <c r="C564" s="16"/>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16"/>
@@ -11371,7 +11374,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16"/>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B602" s="10"/>
       <c r="C602" s="16"/>
@@ -11500,7 +11503,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B614" s="10"/>
       <c r="C614" s="16"/>
@@ -11567,7 +11570,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B627" s="10"/>
       <c r="C627" s="16"/>
@@ -11629,7 +11632,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B639" s="10"/>
       <c r="C639" s="16"/>
@@ -11696,7 +11699,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="16"/>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="16"/>
@@ -11825,7 +11828,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="16"/>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16"/>
@@ -11954,7 +11957,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B702" s="10"/>
       <c r="C702" s="16"/>
@@ -12016,7 +12019,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="16"/>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B727" s="10"/>
       <c r="C727" s="16"/>
@@ -12145,7 +12148,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16"/>
@@ -12212,7 +12215,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16"/>
@@ -12274,7 +12277,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="16"/>
@@ -12341,7 +12344,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="16"/>
@@ -12403,7 +12406,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B789" s="10"/>
       <c r="C789" s="16"/>
@@ -12470,7 +12473,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B802" s="10"/>
       <c r="C802" s="16"/>
@@ -12532,7 +12535,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16"/>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B827" s="10"/>
       <c r="C827" s="16"/>
@@ -12661,7 +12664,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16"/>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16"/>
@@ -12790,7 +12793,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16"/>
@@ -12857,7 +12860,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="16"/>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B889" s="10"/>
       <c r="C889" s="16"/>
@@ -12986,7 +12989,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16"/>
@@ -13048,7 +13051,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B914" s="10"/>
       <c r="C914" s="16"/>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B927" s="10"/>
       <c r="C927" s="16"/>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B939" s="10"/>
       <c r="C939" s="16"/>
@@ -13244,7 +13247,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B952" s="10"/>
       <c r="C952" s="16"/>
@@ -13311,7 +13314,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="16"/>
@@ -13378,7 +13381,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="16"/>
@@ -13445,7 +13448,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="16"/>
@@ -13502,7 +13505,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="16"/>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">Atlético de Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLZ J9</t>
   </si>
   <si>
     <t xml:space="preserve">Mallorca - Real Betis</t>
@@ -2352,8 +2355,8 @@
       <c r="K3" s="10">
         <v>0.25</v>
       </c>
-      <c r="L3" s="10">
-        <v>1.5</v>
+      <c r="L3" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="M3" s="10">
         <v>3</v>
@@ -2459,17 +2462,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12">
@@ -2594,126 +2597,126 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2723,126 +2726,126 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2852,126 +2855,126 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2981,126 +2984,126 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -3110,125 +3113,125 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -3238,126 +3241,126 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -3367,126 +3370,126 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3496,126 +3499,126 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3629,116 +3632,116 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3748,122 +3751,122 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3873,126 +3876,126 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -4002,126 +4005,126 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -4131,126 +4134,126 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -4260,126 +4263,126 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4389,126 +4392,126 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4518,126 +4521,126 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4647,126 +4650,126 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4776,126 +4779,126 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4905,13 +4908,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4962,17 +4965,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -5092,31 +5095,31 @@
         <v>42</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
@@ -5252,7 +5255,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -5384,1496 +5387,1496 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -6882,1268 +6885,1268 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
@@ -8151,145 +8154,145 @@
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL55" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -8299,133 +8302,133 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
@@ -8435,77 +8438,77 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -8517,84 +8520,84 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -8606,77 +8609,77 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -8688,84 +8691,84 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -8777,77 +8780,77 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -8859,84 +8862,84 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -8948,77 +8951,77 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -9030,84 +9033,84 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -9119,77 +9122,77 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -9201,84 +9204,84 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -9290,77 +9293,77 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="16"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="16"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="16"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="16"/>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="16"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="16"/>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="16"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="16"/>
@@ -9372,84 +9375,84 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="16"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="16"/>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="16"/>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="16"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16"/>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="16"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16"/>
@@ -9461,77 +9464,77 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="16"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="16"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="16"/>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="16"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="16"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="16"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="16"/>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="16"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="16"/>
@@ -9543,84 +9546,84 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="16"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="16"/>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="16"/>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="16"/>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="16"/>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="16"/>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16"/>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16"/>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="16"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16"/>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16"/>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="16"/>
@@ -9761,7 +9764,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="16"/>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="16"/>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="16"/>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="16"/>
@@ -10019,7 +10022,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="16"/>
@@ -10081,7 +10084,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="16"/>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="16"/>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="16"/>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="16"/>
@@ -10339,7 +10342,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="16"/>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="16"/>
@@ -10468,7 +10471,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="16"/>
@@ -10535,7 +10538,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="16"/>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="16"/>
@@ -10664,7 +10667,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="16"/>
@@ -10726,7 +10729,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="16"/>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="16"/>
@@ -10855,7 +10858,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="16"/>
@@ -10922,7 +10925,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="16"/>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B514" s="10"/>
       <c r="C514" s="16"/>
@@ -11051,7 +11054,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16"/>
@@ -11113,7 +11116,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B539" s="10"/>
       <c r="C539" s="16"/>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="16"/>
@@ -11242,7 +11245,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B564" s="10"/>
       <c r="C564" s="16"/>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16"/>
@@ -11371,7 +11374,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16"/>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B602" s="10"/>
       <c r="C602" s="16"/>
@@ -11500,7 +11503,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B614" s="10"/>
       <c r="C614" s="16"/>
@@ -11567,7 +11570,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B627" s="10"/>
       <c r="C627" s="16"/>
@@ -11629,7 +11632,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B639" s="10"/>
       <c r="C639" s="16"/>
@@ -11696,7 +11699,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="16"/>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="16"/>
@@ -11825,7 +11828,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="16"/>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16"/>
@@ -11954,7 +11957,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B702" s="10"/>
       <c r="C702" s="16"/>
@@ -12016,7 +12019,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="16"/>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B727" s="10"/>
       <c r="C727" s="16"/>
@@ -12145,7 +12148,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16"/>
@@ -12212,7 +12215,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16"/>
@@ -12274,7 +12277,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="16"/>
@@ -12341,7 +12344,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="16"/>
@@ -12403,7 +12406,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B789" s="10"/>
       <c r="C789" s="16"/>
@@ -12470,7 +12473,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B802" s="10"/>
       <c r="C802" s="16"/>
@@ -12532,7 +12535,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16"/>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B827" s="10"/>
       <c r="C827" s="16"/>
@@ -12661,7 +12664,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16"/>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16"/>
@@ -12790,7 +12793,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16"/>
@@ -12857,7 +12860,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="16"/>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B889" s="10"/>
       <c r="C889" s="16"/>
@@ -12986,7 +12989,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16"/>
@@ -13048,7 +13051,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B914" s="10"/>
       <c r="C914" s="16"/>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B927" s="10"/>
       <c r="C927" s="16"/>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B939" s="10"/>
       <c r="C939" s="16"/>
@@ -13244,7 +13247,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B952" s="10"/>
       <c r="C952" s="16"/>
@@ -13311,7 +13314,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="16"/>
@@ -13378,7 +13381,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="16"/>
@@ -13445,7 +13448,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="16"/>
@@ -13502,7 +13505,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="16"/>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -2347,7 +2347,7 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10">
         <v>0.25</v>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">Atlético de Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLZ J9 5</t>
   </si>
   <si>
     <t xml:space="preserve">Mallorca - Real Betis</t>
@@ -2346,8 +2349,8 @@
       <c r="I3" s="10">
         <v>1.5</v>
       </c>
-      <c r="J3" s="10">
-        <v>5</v>
+      <c r="J3" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="K3" s="10">
         <v>0.25</v>
@@ -2459,17 +2462,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12">
@@ -2594,126 +2597,126 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2723,126 +2726,126 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2852,126 +2855,126 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2981,126 +2984,126 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -3110,125 +3113,125 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -3238,126 +3241,126 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -3367,126 +3370,126 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3496,126 +3499,126 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3629,116 +3632,116 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3748,122 +3751,122 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3873,126 +3876,126 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ15" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -4002,126 +4005,126 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -4131,126 +4134,126 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -4260,126 +4263,126 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4389,126 +4392,126 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4518,126 +4521,126 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ20" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4647,126 +4650,126 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4776,126 +4779,126 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4905,13 +4908,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4962,17 +4965,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -5092,31 +5095,31 @@
         <v>42</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
@@ -5252,7 +5255,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -5384,1496 +5387,1496 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU27" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU35" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU36" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -6882,1268 +6885,1268 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU38" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU40" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU42" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU43" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU46" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
@@ -8151,145 +8154,145 @@
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL55" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -8299,133 +8302,133 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
@@ -8435,77 +8438,77 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -8517,84 +8520,84 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -8606,77 +8609,77 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -8688,84 +8691,84 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -8777,77 +8780,77 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -8859,84 +8862,84 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -8948,77 +8951,77 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -9030,84 +9033,84 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -9119,77 +9122,77 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -9201,84 +9204,84 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -9290,77 +9293,77 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="16"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="16"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="16"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="16"/>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="16"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="16"/>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="16"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="16"/>
@@ -9372,84 +9375,84 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="16"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="16"/>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="16"/>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="16"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16"/>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="16"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16"/>
@@ -9461,77 +9464,77 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="16"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="16"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="16"/>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="16"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="16"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="16"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="16"/>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="16"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="16"/>
@@ -9543,84 +9546,84 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="16"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="16"/>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="16"/>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="16"/>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="16"/>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="16"/>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16"/>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16"/>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="16"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16"/>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16"/>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="16"/>
@@ -9761,7 +9764,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="16"/>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="16"/>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="16"/>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="16"/>
@@ -10019,7 +10022,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="16"/>
@@ -10081,7 +10084,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="16"/>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="16"/>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="16"/>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="16"/>
@@ -10339,7 +10342,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="16"/>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="16"/>
@@ -10468,7 +10471,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="16"/>
@@ -10535,7 +10538,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="16"/>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="16"/>
@@ -10664,7 +10667,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="16"/>
@@ -10726,7 +10729,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="16"/>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="16"/>
@@ -10855,7 +10858,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="16"/>
@@ -10922,7 +10925,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="16"/>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B514" s="10"/>
       <c r="C514" s="16"/>
@@ -11051,7 +11054,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16"/>
@@ -11113,7 +11116,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B539" s="10"/>
       <c r="C539" s="16"/>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="16"/>
@@ -11242,7 +11245,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B564" s="10"/>
       <c r="C564" s="16"/>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16"/>
@@ -11371,7 +11374,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16"/>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B602" s="10"/>
       <c r="C602" s="16"/>
@@ -11500,7 +11503,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B614" s="10"/>
       <c r="C614" s="16"/>
@@ -11567,7 +11570,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B627" s="10"/>
       <c r="C627" s="16"/>
@@ -11629,7 +11632,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B639" s="10"/>
       <c r="C639" s="16"/>
@@ -11696,7 +11699,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="16"/>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="16"/>
@@ -11825,7 +11828,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="16"/>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16"/>
@@ -11954,7 +11957,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B702" s="10"/>
       <c r="C702" s="16"/>
@@ -12016,7 +12019,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="16"/>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B727" s="10"/>
       <c r="C727" s="16"/>
@@ -12145,7 +12148,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16"/>
@@ -12212,7 +12215,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16"/>
@@ -12274,7 +12277,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="16"/>
@@ -12341,7 +12344,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="16"/>
@@ -12403,7 +12406,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B789" s="10"/>
       <c r="C789" s="16"/>
@@ -12470,7 +12473,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B802" s="10"/>
       <c r="C802" s="16"/>
@@ -12532,7 +12535,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16"/>
@@ -12599,7 +12602,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B827" s="10"/>
       <c r="C827" s="16"/>
@@ -12661,7 +12664,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16"/>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16"/>
@@ -12790,7 +12793,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16"/>
@@ -12857,7 +12860,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="16"/>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B889" s="10"/>
       <c r="C889" s="16"/>
@@ -12986,7 +12989,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16"/>
@@ -13048,7 +13051,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B914" s="10"/>
       <c r="C914" s="16"/>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B927" s="10"/>
       <c r="C927" s="16"/>
@@ -13177,7 +13180,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B939" s="10"/>
       <c r="C939" s="16"/>
@@ -13244,7 +13247,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B952" s="10"/>
       <c r="C952" s="16"/>
@@ -13311,7 +13314,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="16"/>
@@ -13378,7 +13381,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="16"/>
@@ -13445,7 +13448,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="16"/>
@@ -13502,7 +13505,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="16"/>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t xml:space="preserve">APLZ J9 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLZ 28 0,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLZ J10 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLZ J14 0</t>
   </si>
   <si>
     <t xml:space="preserve">Mallorca - Real Betis</t>
@@ -2352,20 +2361,20 @@
       <c r="J3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="10">
-        <v>0.25</v>
+      <c r="K3" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="10">
         <v>1.5</v>
       </c>
-      <c r="M3" s="10">
-        <v>3</v>
+      <c r="M3" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="10">
-        <v>0</v>
+      <c r="O3" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="P3" s="10">
         <v>2.5</v>
@@ -2462,17 +2471,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12">
@@ -2597,126 +2606,126 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2726,126 +2735,126 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2855,126 +2864,126 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2984,126 +2993,126 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -3113,125 +3122,125 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -3241,126 +3250,126 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -3370,126 +3379,126 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3499,126 +3508,126 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3632,116 +3641,116 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3751,122 +3760,122 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ14" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3876,126 +3885,126 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ15" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -4005,126 +4014,126 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -4134,126 +4143,126 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -4263,126 +4272,126 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4392,126 +4401,126 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4521,126 +4530,126 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ20" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4650,126 +4659,126 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4779,126 +4788,126 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4908,13 +4917,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4965,17 +4974,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -5095,31 +5104,31 @@
         <v>42</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
@@ -5255,7 +5264,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -5387,1496 +5396,1496 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU27" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU28" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU29" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU30" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU31" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU32" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU33" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU34" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU35" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU36" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU37" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
@@ -6885,1268 +6894,1268 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU38" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU39" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU40" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU41" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU42" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU43" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU44" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU45" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV45" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AH46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AJ46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AM46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AR46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AS46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AT46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AU46" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
@@ -8154,145 +8163,145 @@
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL55" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63">
@@ -8302,133 +8311,133 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76">
@@ -8438,77 +8447,77 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -8520,84 +8529,84 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -8609,77 +8618,77 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -8691,84 +8700,84 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -8780,77 +8789,77 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -8862,84 +8871,84 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -8951,77 +8960,77 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -9033,84 +9042,84 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -9122,77 +9131,77 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -9204,84 +9213,84 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -9293,77 +9302,77 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="16"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="16"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="16"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="16"/>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="16"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="16"/>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="16"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="16"/>
@@ -9375,84 +9384,84 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="16"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="16"/>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="16"/>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="16"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16"/>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="16"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16"/>
@@ -9464,77 +9473,77 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="16"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="16"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="16"/>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="16"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="16"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="16"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="16"/>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="16"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="16"/>
@@ -9546,84 +9555,84 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="16"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="16"/>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="16"/>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="16"/>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="16"/>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="16"/>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16"/>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16"/>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="16"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16"/>
@@ -9635,7 +9644,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16"/>
@@ -9697,7 +9706,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="16"/>
@@ -9764,7 +9773,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="16"/>
@@ -9826,7 +9835,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="16"/>
@@ -9893,7 +9902,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="16"/>
@@ -9955,7 +9964,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="16"/>
@@ -10022,7 +10031,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="16"/>
@@ -10084,7 +10093,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="16"/>
@@ -10151,7 +10160,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="16"/>
@@ -10213,7 +10222,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="16"/>
@@ -10280,7 +10289,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="16"/>
@@ -10342,7 +10351,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="16"/>
@@ -10409,7 +10418,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="16"/>
@@ -10471,7 +10480,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="16"/>
@@ -10538,7 +10547,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="16"/>
@@ -10600,7 +10609,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="16"/>
@@ -10667,7 +10676,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="16"/>
@@ -10729,7 +10738,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="16"/>
@@ -10796,7 +10805,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="16"/>
@@ -10858,7 +10867,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="16"/>
@@ -10925,7 +10934,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="16"/>
@@ -10987,7 +10996,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B514" s="10"/>
       <c r="C514" s="16"/>
@@ -11054,7 +11063,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16"/>
@@ -11116,7 +11125,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B539" s="10"/>
       <c r="C539" s="16"/>
@@ -11183,7 +11192,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="16"/>
@@ -11245,7 +11254,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B564" s="10"/>
       <c r="C564" s="16"/>
@@ -11312,7 +11321,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16"/>
@@ -11374,7 +11383,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16"/>
@@ -11441,7 +11450,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B602" s="10"/>
       <c r="C602" s="16"/>
@@ -11503,7 +11512,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B614" s="10"/>
       <c r="C614" s="16"/>
@@ -11570,7 +11579,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B627" s="10"/>
       <c r="C627" s="16"/>
@@ -11632,7 +11641,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B639" s="10"/>
       <c r="C639" s="16"/>
@@ -11699,7 +11708,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="16"/>
@@ -11761,7 +11770,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="16"/>
@@ -11828,7 +11837,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="16"/>
@@ -11890,7 +11899,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16"/>
@@ -11957,7 +11966,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B702" s="10"/>
       <c r="C702" s="16"/>
@@ -12019,7 +12028,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="16"/>
@@ -12086,7 +12095,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B727" s="10"/>
       <c r="C727" s="16"/>
@@ -12148,7 +12157,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16"/>
@@ -12215,7 +12224,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16"/>
@@ -12277,7 +12286,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="16"/>
@@ -12344,7 +12353,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="16"/>
@@ -12406,7 +12415,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B789" s="10"/>
       <c r="C789" s="16"/>
@@ -12473,7 +12482,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B802" s="10"/>
       <c r="C802" s="16"/>
@@ -12535,7 +12544,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16"/>
@@ -12602,7 +12611,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B827" s="10"/>
       <c r="C827" s="16"/>
@@ -12664,7 +12673,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16"/>
@@ -12731,7 +12740,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16"/>
@@ -12793,7 +12802,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16"/>
@@ -12860,7 +12869,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="16"/>
@@ -12922,7 +12931,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B889" s="10"/>
       <c r="C889" s="16"/>
@@ -12989,7 +12998,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16"/>
@@ -13051,7 +13060,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B914" s="10"/>
       <c r="C914" s="16"/>
@@ -13118,7 +13127,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B927" s="10"/>
       <c r="C927" s="16"/>
@@ -13180,7 +13189,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B939" s="10"/>
       <c r="C939" s="16"/>
@@ -13247,7 +13256,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B952" s="10"/>
       <c r="C952" s="16"/>
@@ -13314,7 +13323,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="16"/>
@@ -13381,7 +13390,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="16"/>
@@ -13448,7 +13457,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="16"/>
@@ -13505,7 +13514,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="16"/>

--- a/Quiniela 21-22 Antigua.xlsx
+++ b/Quiniela 21-22 Antigua.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -189,9 +189,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Hola</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deportivo Alavés - Real Madrid</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>Mallorca</t>
-  </si>
-  <si>
-    <t>-------------*</t>
   </si>
   <si>
     <t xml:space="preserve">Fuenlabrada - Tenerife</t>
@@ -2722,7 +2716,7 @@
         <v>57</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2732,17 +2726,17 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
@@ -2851,7 +2845,7 @@
         <v>57</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2861,17 +2855,17 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="10"/>
@@ -2980,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2990,17 +2984,17 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="10"/>
@@ -3109,7 +3103,7 @@
         <v>57</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -3119,17 +3113,17 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3237,7 +3231,7 @@
         <v>57</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -3247,17 +3241,17 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="10"/>
@@ -3366,7 +3360,7 @@
         <v>57</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -3376,17 +3370,17 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="10"/>
@@ -3495,7 +3489,7 @@
         <v>57</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3505,17 +3499,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
@@ -3624,7 +3618,7 @@
         <v>57</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3638,7 +3632,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10"/>
@@ -3747,7 +3741,7 @@
         <v>57</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3757,13 +3751,13 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10"/>
@@ -3872,7 +3866,7 @@
         <v>57</v>
       </c>
       <c r="AR14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3882,17 +3876,17 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10"/>
@@ -4001,7 +3995,7 @@
         <v>57</v>
       </c>
       <c r="AR15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -4011,17 +4005,17 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10"/>
@@ -4130,7 +4124,7 @@
         <v>57</v>
       </c>
       <c r="AR16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -4140,17 +4134,17 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
@@ -4259,7 +4253,7 @@
         <v>57</v>
       </c>
       <c r="AR17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -4269,17 +4263,17 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10"/>
@@ -4388,7 +4382,7 @@
         <v>57</v>
       </c>
       <c r="AR18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4398,17 +4392,17 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="10"/>
@@ -4517,7 +4511,7 @@
         <v>57</v>
       </c>
       <c r="AR19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4527,17 +4521,17 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="10"/>
@@ -4646,7 +4640,7 @@
         <v>57</v>
       </c>
       <c r="AR20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4656,17 +4650,17 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="10"/>
@@ -4712,7 +4706,7 @@
         <v>57</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>57</v>
@@ -4775,7 +4769,7 @@
         <v>57</v>
       </c>
       <c r="AR21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4785,17 +4779,17 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="10"/>
@@ -4904,7 +4898,7 @@
         <v>57</v>
       </c>
       <c r="AR22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4914,13 +4908,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4971,17 +4965,17 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -5101,31 +5095,31 @@
         <v>42</v>
       </c>
       <c r="AS24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AT24" s="8" t="s">
+      <c r="AV24" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="AU24" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV24" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
@@ -5261,7 +5255,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12">
@@ -5393,13 +5387,13 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
@@ -5520,22 +5514,22 @@
         <v>57</v>
       </c>
       <c r="AV27" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="10"/>
@@ -5656,22 +5650,22 @@
         <v>57</v>
       </c>
       <c r="AV28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="10"/>
@@ -5792,22 +5786,22 @@
         <v>57</v>
       </c>
       <c r="AV29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="10"/>
@@ -5928,22 +5922,22 @@
         <v>57</v>
       </c>
       <c r="AV30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="10"/>
@@ -6064,22 +6058,22 @@
         <v>57</v>
       </c>
       <c r="AV31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="10"/>
@@ -6200,22 +6194,22 @@
         <v>57</v>
       </c>
       <c r="AV32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="10"/>
@@ -6336,22 +6330,22 @@
         <v>57</v>
       </c>
       <c r="AV33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="10"/>
@@ -6472,25 +6466,25 @@
         <v>57</v>
       </c>
       <c r="AV34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -6610,22 +6604,22 @@
         <v>57</v>
       </c>
       <c r="AV35" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="10"/>
@@ -6746,22 +6740,22 @@
         <v>57</v>
       </c>
       <c r="AV36" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="10"/>
@@ -6882,7 +6876,7 @@
         <v>57</v>
       </c>
       <c r="AV37" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -6891,7 +6885,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="10"/>
@@ -7012,18 +7006,18 @@
         <v>57</v>
       </c>
       <c r="AV38" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="10"/>
@@ -7144,22 +7138,22 @@
         <v>57</v>
       </c>
       <c r="AV39" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="10"/>
@@ -7280,22 +7274,22 @@
         <v>57</v>
       </c>
       <c r="AV40" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="10"/>
@@ -7416,22 +7410,22 @@
         <v>57</v>
       </c>
       <c r="AV41" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="10"/>
@@ -7552,22 +7546,22 @@
         <v>57</v>
       </c>
       <c r="AV42" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="10"/>
@@ -7688,22 +7682,22 @@
         <v>57</v>
       </c>
       <c r="AV43" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="10"/>
@@ -7824,22 +7818,22 @@
         <v>57</v>
       </c>
       <c r="AV44" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="10"/>
@@ -7960,22 +7954,22 @@
         <v>57</v>
       </c>
       <c r="AV45" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="10"/>
@@ -8096,63 +8090,63 @@
         <v>57</v>
       </c>
       <c r="AV46" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="51">
@@ -8160,145 +8154,145 @@
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL55" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL55" s="18" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AL57" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="M61" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="M61" s="18" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="M62" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="63">
@@ -8308,75 +8302,75 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K70" s="18" t="s">
         <v>57</v>
@@ -8384,57 +8378,57 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
@@ -8444,77 +8438,77 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -8526,84 +8520,84 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -8615,77 +8609,77 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -8697,84 +8691,84 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -8786,77 +8780,77 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -8868,84 +8862,84 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -8957,77 +8951,77 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -9039,84 +9033,84 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -9128,77 +9122,77 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -9210,84 +9204,84 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -9299,77 +9293,77 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="16"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="16"/>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="16"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="16"/>
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="16"/>
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="16"/>
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="16"/>
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B212" s="10"/>
       <c r="C212" s="16"/>
@@ -9381,84 +9375,84 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B214" s="10"/>
       <c r="C214" s="16"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B215" s="10"/>
       <c r="C215" s="16"/>
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B216" s="10"/>
       <c r="C216" s="16"/>
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B217" s="10"/>
       <c r="C217" s="16"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16"/>
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16"/>
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="16"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16"/>
@@ -9470,77 +9464,77 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B227" s="10"/>
       <c r="C227" s="16"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B229" s="10"/>
       <c r="C229" s="16"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B231" s="10"/>
       <c r="C231" s="16"/>
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B232" s="10"/>
       <c r="C232" s="16"/>
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B233" s="10"/>
       <c r="C233" s="16"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B234" s="10"/>
       <c r="C234" s="16"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B235" s="10"/>
       <c r="C235" s="16"/>
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B236" s="10"/>
       <c r="C236" s="16"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B237" s="10"/>
       <c r="C237" s="16"/>
@@ -9552,84 +9546,84 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="16"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B240" s="10"/>
       <c r="C240" s="16"/>
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="16"/>
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B242" s="10"/>
       <c r="C242" s="16"/>
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B243" s="10"/>
       <c r="C243" s="16"/>
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B244" s="10"/>
       <c r="C244" s="16"/>
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16"/>
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16"/>
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16"/>
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="16"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16"/>
@@ -9641,7 +9635,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16"/>
@@ -9703,7 +9697,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B264" s="10"/>
       <c r="C264" s="16"/>
@@ -9770,7 +9764,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B277" s="10"/>
       <c r="C277" s="16"/>
@@ -9832,7 +9826,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B289" s="10"/>
       <c r="C289" s="16"/>
@@ -9899,7 +9893,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="16"/>
@@ -9961,7 +9955,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B314" s="10"/>
       <c r="C314" s="16"/>
@@ -10028,7 +10022,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B327" s="10"/>
       <c r="C327" s="16"/>
@@ -10090,7 +10084,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="16"/>
@@ -10157,7 +10151,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="16"/>
@@ -10219,7 +10213,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="16"/>
@@ -10286,7 +10280,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="16"/>
@@ -10348,7 +10342,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B389" s="10"/>
       <c r="C389" s="16"/>
@@ -10415,7 +10409,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B402" s="10"/>
       <c r="C402" s="16"/>
@@ -10477,7 +10471,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="16"/>
@@ -10544,7 +10538,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B427" s="10"/>
       <c r="C427" s="16"/>
@@ -10606,7 +10600,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B439" s="10"/>
       <c r="C439" s="16"/>
@@ -10673,7 +10667,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="16"/>
@@ -10735,7 +10729,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="16"/>
@@ -10802,7 +10796,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="16"/>
@@ -10864,7 +10858,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="16"/>
@@ -10931,7 +10925,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B502" s="10"/>
       <c r="C502" s="16"/>
@@ -10993,7 +10987,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B514" s="10"/>
       <c r="C514" s="16"/>
@@ -11060,7 +11054,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16"/>
@@ -11122,7 +11116,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B539" s="10"/>
       <c r="C539" s="16"/>
@@ -11189,7 +11183,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="16"/>
@@ -11251,7 +11245,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B564" s="10"/>
       <c r="C564" s="16"/>
@@ -11318,7 +11312,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16"/>
@@ -11380,7 +11374,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16"/>
@@ -11447,7 +11441,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B602" s="10"/>
       <c r="C602" s="16"/>
@@ -11509,7 +11503,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B614" s="10"/>
       <c r="C614" s="16"/>
@@ -11576,7 +11570,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B627" s="10"/>
       <c r="C627" s="16"/>
@@ -11638,7 +11632,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B639" s="10"/>
       <c r="C639" s="16"/>
@@ -11705,7 +11699,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="16"/>
@@ -11767,7 +11761,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="16"/>
@@ -11834,7 +11828,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="16"/>
@@ -11896,7 +11890,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16"/>
@@ -11963,7 +11957,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B702" s="10"/>
       <c r="C702" s="16"/>
@@ -12025,7 +12019,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="16"/>
@@ -12092,7 +12086,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B727" s="10"/>
       <c r="C727" s="16"/>
@@ -12154,7 +12148,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16"/>
@@ -12221,7 +12215,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16"/>
@@ -12283,7 +12277,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B764" s="10"/>
       <c r="C764" s="16"/>
@@ -12350,7 +12344,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B777" s="10"/>
       <c r="C777" s="16"/>
@@ -12412,7 +12406,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B789" s="10"/>
       <c r="C789" s="16"/>
@@ -12479,7 +12473,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B802" s="10"/>
       <c r="C802" s="16"/>
@@ -12541,7 +12535,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16"/>
@@ -12608,7 +12602,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B827" s="10"/>
       <c r="C827" s="16"/>
@@ -12670,7 +12664,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16"/>
@@ -12737,7 +12731,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16"/>
@@ -12799,7 +12793,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16"/>
@@ -12866,7 +12860,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="16"/>
@@ -12928,7 +12922,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B889" s="10"/>
       <c r="C889" s="16"/>
@@ -12995,7 +12989,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16"/>
@@ -13057,7 +13051,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B914" s="10"/>
       <c r="C914" s="16"/>
@@ -13124,7 +13118,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B927" s="10"/>
       <c r="C927" s="16"/>
@@ -13186,7 +13180,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B939" s="10"/>
       <c r="C939" s="16"/>
@@ -13253,7 +13247,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B952" s="10"/>
       <c r="C952" s="16"/>
@@ -13320,7 +13314,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B965" s="10"/>
       <c r="C965" s="16"/>
@@ -13387,7 +13381,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B978" s="10"/>
       <c r="C978" s="16"/>
@@ -13454,7 +13448,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B991" s="10"/>
       <c r="C991" s="16"/>
@@ -13511,7 +13505,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1002" s="10"/>
       <c r="C1002" s="16"/>
